--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C72549-70D4-4D27-871B-1E8E3E45769F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673AE12D-97FD-4702-AF5A-CC3DD9E37E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="4650" windowWidth="16410" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -499,9 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673AE12D-97FD-4702-AF5A-CC3DD9E37E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03611FCF-52C1-455B-A17D-E1D2A39AC26A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="4650" windowWidth="16410" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/District/DistriceTest01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,14 +511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
@@ -560,13 +574,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -575,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -586,7 +600,7 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03611FCF-52C1-455B-A17D-E1D2A39AC26A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44D261-8E6B-46EF-8A38-790555D11BB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>SpriteOutput/District/DistriceTest01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/District/DistriceTest02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,6 +631,44 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44D261-8E6B-46EF-8A38-790555D11BB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CABD22-5D23-4086-9140-65A42E680E75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>District_Effect_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,7 +556,7 @@
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="12" max="12" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -628,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CABD22-5D23-4086-9140-65A42E680E75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F390E9B-4EBF-4D4F-AA3A-497D3433F034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23610" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
+    <sheet name="DistrictType" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,15 +112,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>District_Effect_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_EMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_EMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_UNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_UNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>District_Effect_101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,74 +232,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -279,7 +248,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -537,24 +506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.125" customWidth="1"/>
   </cols>
@@ -573,104 +542,180 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -678,4 +723,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F390E9B-4EBF-4D4F-AA3A-497D3433F034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4025F964-FFD5-43BF-930D-703E53B285AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23610" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
     <sheet name="DistrictType" sheetId="3" r:id="rId2"/>
+    <sheet name="DistrictIcon" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DistrictIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CurrencyCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +158,46 @@
   </si>
   <si>
     <t>District_Effect_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,6 +269,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -248,7 +353,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -508,16 +613,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
@@ -533,37 +638,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -571,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -609,19 +714,19 @@
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -647,19 +752,19 @@
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -668,16 +773,16 @@
         <v>1000</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -685,19 +790,19 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -706,16 +811,16 @@
         <v>1000</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -727,39 +832,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -767,4 +893,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F904888-4851-42EF-8BCC-83B4CF11129D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4025F964-FFD5-43BF-930D-703E53B285AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF116B-7B41-4CF6-992C-12A8AD99839B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15855" yWindow="5355" windowWidth="18900" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +194,18 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/District/District_Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +622,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -676,7 +684,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -685,7 +693,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>27</v>
@@ -714,7 +722,7 @@
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -752,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -790,7 +798,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -832,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -862,30 +870,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F904888-4851-42EF-8BCC-83B4CF11129D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,24 +945,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EF116B-7B41-4CF6-992C-12A8AD99839B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCC57F-CBAD-41E9-8661-639A7544AB11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15855" yWindow="5355" windowWidth="18900" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20340" yWindow="4545" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +198,14 @@
   </si>
   <si>
     <t>SpriteOutput/District/District_Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10,101:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10,102:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -684,19 +684,19 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -722,19 +722,19 @@
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -760,13 +760,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1000</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -798,13 +798,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -819,16 +819,16 @@
         <v>1000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,16 +856,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -934,13 +934,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCC57F-CBAD-41E9-8661-639A7544AB11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE895CB5-FAD5-4632-9DCD-545EDEF25CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20340" yWindow="4545" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1575" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE895CB5-FAD5-4632-9DCD-545EDEF25CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396537F6-2C52-4892-B59D-4AC441431068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1575" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
     <sheet name="DistrictType" sheetId="3" r:id="rId2"/>
     <sheet name="DistrictIcon" sheetId="4" r:id="rId3"/>
+    <sheet name="DistrictModel" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistrictName_EMPTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +199,38 @@
   </si>
   <si>
     <t>100:10,102:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型2</t>
+  </si>
+  <si>
+    <t>模型3</t>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_02</t>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_03</t>
+  </si>
+  <si>
+    <t>PrefabList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,21 +657,20 @@
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -655,51 +679,48 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -713,31 +734,28 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -751,84 +769,75 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
+      <c r="F5" s="1">
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1">
         <v>20</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -852,62 +861,75 @@
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -934,13 +956,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,10 +992,76 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6E7F6F-DE16-4520-AF65-7896D5DE76AB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396537F6-2C52-4892-B59D-4AC441431068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48F250-C07A-47B8-9191-8F6AADAFF6E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,6 @@
     <t>模型3</t>
   </si>
   <si>
-    <t>Prefabs/FunctionBlock/Manu/District_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/FunctionBlock/Manu/District_02</t>
-  </si>
-  <si>
     <t>Prefabs/FunctionBlock/Manu/District_03</t>
   </si>
   <si>
@@ -230,7 +223,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
+    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,7 +945,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6E7F6F-DE16-4520-AF65-7896D5DE76AB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1040,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1062,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48F250-C07A-47B8-9191-8F6AADAFF6E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D759D20-3504-4320-BC83-FC62586AC69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="705" windowWidth="16215" windowHeight="13635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
     <sheet name="DistrictType" sheetId="3" r:id="rId2"/>
     <sheet name="DistrictIcon" sheetId="4" r:id="rId3"/>
-    <sheet name="DistrictModel" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,18 +61,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ParentList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistrictName_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>District_Effect_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0;0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistrictName_EMPTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,27 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型2</t>
-  </si>
-  <si>
-    <t>模型3</t>
-  </si>
-  <si>
-    <t>Prefabs/FunctionBlock/Manu/District_03</t>
-  </si>
-  <si>
-    <t>PrefabList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/FunctionBlock/Manu/District_Smelt_Large</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,7 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,1</t>
+    <t>2X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,1;1,0;1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +263,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,16 +631,15 @@
     <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.125" customWidth="1"/>
+    <col min="10" max="10" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -680,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -694,25 +662,22 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -732,22 +697,19 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -767,22 +729,19 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -794,30 +753,27 @@
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -829,16 +785,13 @@
         <v>1000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -850,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,24 +815,24 @@
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -887,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,16 +857,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,16 +874,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +915,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,13 +927,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -971,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -982,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -993,76 +963,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6E7F6F-DE16-4520-AF65-7896D5DE76AB}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D759D20-3504-4320-BC83-FC62586AC69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BDD9B-770D-4FA0-A3E5-A90E7D08019E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="705" windowWidth="16215" windowHeight="13635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects/FunctionBlock/PowerArea/Power_Storage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,74 +288,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,7 +304,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -614,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,6 +742,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C05373-F3E8-4E62-8704-0E8C75214365}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,7 +795,7 @@
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -901,6 +881,23 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/DistrictMetaData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BDD9B-770D-4FA0-A3E5-A90E7D08019E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47F9C7-FCD4-428E-86EA-E9F4C32EFAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistrictData" sheetId="1" r:id="rId1"/>
     <sheet name="DistrictType" sheetId="3" r:id="rId2"/>
-    <sheet name="DistrictIcon" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>DistrictID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,147 +72,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DistrictName_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>District_Effect_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_EMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_EMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictName_UNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictDesc_UNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>District_Effect_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10,101:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:10,102:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0;0,1;1,0;1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects/FunctionBlock/PowerArea/Power_Storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/District/District_Empty</t>
+  </si>
+  <si>
     <t>SpriteOutput/District/DistriceTest01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictName_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictDesc_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpriteOutput/District/DistriceTest02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>District_Effect_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeShape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictName_EMPTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictDesc_EMPTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictName_UNLOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistrictDesc_UNLOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>District_Effect_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/District/District_Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100:10,101:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100:10,102:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Large</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/FunctionBlock/Manu/District_Smelt_Small</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0;0,1;1,0;1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Objects/FunctionBlock/PowerArea/Power_Storage</t>
+  </si>
+  <si>
+    <t>SpriteOutput/District/DistriceTest02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +545,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -596,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -619,13 +599,13 @@
         <v>-1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -651,13 +631,13 @@
         <v>-2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -683,7 +663,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -701,13 +681,13 @@
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -715,13 +695,13 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -733,13 +713,13 @@
         <v>1000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -747,13 +727,13 @@
         <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -765,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>20</v>
@@ -786,7 +766,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,22 +774,22 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -820,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,16 +834,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,16 +851,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -888,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -905,70 +885,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F904888-4851-42EF-8BCC-83B4CF11129D}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>